--- a/test.xlsx
+++ b/test.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -35,7 +35,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="#,##0.00;[Red]#,##0.00" numFmtId="164"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="等线"/>
@@ -72,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -352,7 +355,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
